--- a/biology/Botanique/Haworthia_cymbiformis/Haworthia_cymbiformis.xlsx
+++ b/biology/Botanique/Haworthia_cymbiformis/Haworthia_cymbiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haworthia cymbiformis est une espèce du genre Haworthia, sous-genre Haworthia, et de la famille des Asphodelaceae selon la classification phylogénétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce menue formant une rosette de petite taille, aux feuilles épaisses, aplaties, de couleur vert clair opaque et d'aspect et de taille variable.
 La caractéristique essentielle est la pointe des feuilles composée de tissus transparents. Dans son habitat naturel avec une très forte exposition au soleil, la plante pousse semi-enterrée. Seules émergent ces pointes de feuilles pour filtrer les rayons du soleil et assurer la photosynthèse.
@@ -544,7 +558,9 @@
           <t>Formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Haworthia cymbiformis var. cymbiformis : variété type.
 Haworthia cymbiformis var. cymbiformis f. agavoides : feuilles vert foncé, bord denticulé, grosses rosettes aplaties.
